--- a/modules/unsupported/excel/src/test/resources/org/geotools/data/excel/test-data/locations.xlsx
+++ b/modules/unsupported/excel/src/test/resources/org/geotools/data/excel/test-data/locations.xlsx
@@ -880,7 +880,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E10"/>
+      <selection sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
